--- a/data/long_dif/P18_1-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_1-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,34%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,72; 37,64</t>
+          <t>20,05; 51,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 20,18</t>
+          <t>8,94; 22,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 23,16</t>
+          <t>9,94; 21,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,36; 32,38</t>
+          <t>7,34; 19,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 28,57</t>
+          <t>17,22; 33,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,93; 36,79</t>
+          <t>19,89; 36,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,15; 31,91</t>
+          <t>20,17; 30,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 22,81</t>
+          <t>21,91; 38,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,87; 28,36</t>
+          <t>21,43; 38,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 26,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 24,79</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 28,45</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,49%</t>
+          <t>67,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,45%</t>
+          <t>48,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>50,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>55,55%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>55,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>55,01%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,18; 71,37</t>
+          <t>41,52; 68,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,26; 76,0</t>
+          <t>62,23; 80,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,15; 74,6</t>
+          <t>59,4; 74,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,76; 62,13</t>
+          <t>39,81; 72,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,39; 54,91</t>
+          <t>45,73; 63,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,28; 53,47</t>
+          <t>35,63; 52,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,4; 64,67</t>
+          <t>43,33; 55,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,61; 61,9</t>
+          <t>41,32; 59,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,89; 61,49</t>
+          <t>46,35; 62,7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49,27; 64,37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52,23; 62,37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44,89; 61,81</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22,47%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 17,46</t>
+          <t>6,18; 19,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 41,05</t>
+          <t>8,03; 21,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,05; 23,55</t>
+          <t>12,59; 23,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 24,49</t>
+          <t>13,46; 51,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,07; 41,29</t>
+          <t>13,39; 29,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,27; 31,09</t>
+          <t>23,13; 38,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,13; 20,16</t>
+          <t>20,64; 31,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,44; 35,16</t>
+          <t>15,0; 28,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,47; 25,96</t>
+          <t>11,37; 22,73</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 29,06</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,74; 26,49</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 36,49</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,28; 32,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 14,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 21,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,05; 38,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,96; 24,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 24,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,01; 34,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 22,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>63,91%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>57,51%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,8; 69,44</t>
+          <t>18,7; 32,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,35; 75,96</t>
+          <t>7,57; 14,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,52; 72,25</t>
+          <t>13,31; 22,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,38; 55,8</t>
+          <t>9,29; 17,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,69; 60,28</t>
+          <t>27,37; 38,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,26; 60,02</t>
+          <t>16,7; 25,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,72; 61,05</t>
+          <t>17,21; 24,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,82; 66,91</t>
+          <t>24,01; 34,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>57,58; 64,95</t>
+          <t>24,44; 33,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 18,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,69; 22,4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,26; 23,87</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>65,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>69,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>73,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>49,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>53,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>57,41%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61,52%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61,31%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>62,52%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 14,9</t>
+          <t>57,91; 71,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,96; 24,03</t>
+          <t>60,98; 75,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,88</t>
+          <t>61,18; 71,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,76</t>
+          <t>63,82; 79,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,76; 29,16</t>
+          <t>44,09; 55,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,0; 27,81</t>
+          <t>48,37; 59,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,34</t>
+          <t>51,16; 59,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,5; 24,87</t>
+          <t>45,29; 56,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,98; 22,65</t>
+          <t>52,47; 61,94</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57,16; 65,97</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57,57; 64,79</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>57,8; 66,74</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,89%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,33; 25,33</t>
+          <t>7,29; 16,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,92; 16,45</t>
+          <t>14,98; 28,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,51; 19,43</t>
+          <t>12,26; 20,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,76; 43,27</t>
+          <t>8,91; 24,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,97; 21,03</t>
+          <t>12,85; 23,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 23,76</t>
+          <t>21,04; 30,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,45; 32,84</t>
+          <t>20,38; 27,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,64; 17,06</t>
+          <t>16,71; 26,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,19; 20,24</t>
+          <t>10,9; 18,02</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,29; 27,25</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 22,41</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 21,72</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66,35; 77,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>66,36; 78,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>69,65; 79,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,49; 57,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>56,96; 67,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,99; 63,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,93; 65,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>63,11; 71,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63,06; 69,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>29,73%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>20,3%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,48</t>
+          <t>14,83; 26,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,69; 22,68</t>
+          <t>4,25; 10,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,5</t>
+          <t>11,21; 19,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,63</t>
+          <t>12,43; 27,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,32; 25,21</t>
+          <t>31,58; 44,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,72; 25,51</t>
+          <t>13,55; 22,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,4</t>
+          <t>16,16; 23,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,56; 22,6</t>
+          <t>18,63; 27,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,22; 18,74</t>
+          <t>25,68; 34,54</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 15,34</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14,85; 20,36</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16,75; 25,22</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>72,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>74,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>75,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>66,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>60,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>58,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>61,32%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>67,22%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>66,53%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>63,63%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,33; 28,51</t>
+          <t>65,18; 78,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,99; 13,98</t>
+          <t>69,12; 79,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>13,7; 19,14</t>
+          <t>70,06; 80,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>30,39; 36,28</t>
+          <t>58,02; 72,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,5; 21,89</t>
+          <t>45,48; 58,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,58; 25,06</t>
+          <t>54,09; 65,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,83; 31,77</t>
+          <t>53,41; 62,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,48; 17,04</t>
+          <t>55,41; 65,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,45; 21,34</t>
+          <t>56,45; 65,65</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>62,79; 70,97</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>62,74; 69,79</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>58,45; 67,97</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69,23%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>61,71%</t>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>61,69; 69,45</t>
+          <t>3,82; 11,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>65,89; 74,09</t>
+          <t>14,17; 23,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>65,71; 72,5</t>
+          <t>7,1; 13,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>49,47; 55,65</t>
+          <t>11,74; 20,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>52,57; 59,46</t>
+          <t>7,28; 15,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>51,56; 57,73</t>
+          <t>18,16; 27,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>56,22; 61,58</t>
+          <t>18,25; 26,21</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>60,05; 65,51</t>
+          <t>12,82; 21,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>59,33; 64,15</t>
+          <t>6,7; 12,43</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 24,26</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 18,47</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 19,52</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>15,48; 22,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>12,43; 17,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,2; 28,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,86; 25,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,49; 13,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,51; 24,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>17,26; 20,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>33,81%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>21,1; 31,65</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 22,61</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>29,06; 38,32</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>8,59; 18,38</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>26,24; 33,57</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 19,1</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>64,1%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>65,82%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>52,47%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>67,3%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>58,46%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>66,51%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>58,23; 69,93</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>55,17; 74,28</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>47,66; 57,49</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>60,24; 74,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>54,48; 62,8</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>58,95; 71,78</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 14,53</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 33,57</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 17,61</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 25,86</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 14,76</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>15,66; 28,5</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>24,81%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>33,4%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>26,78%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>29,19%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>20,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>21,83; 28,75</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 13,33</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>13,79; 19,04</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>11,82; 18,86</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>30,4; 36,28</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 22,03</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>19,07; 23,78</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>23,72; 30,21</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>26,86; 31,52</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>13,13; 16,94</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 20,82</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>18,28; 23,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>65,38%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>70,33%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>69,46%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>68,77%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>51,75%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>56,26%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>54,92%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>54,11%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>58,43%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>63,18%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>62,07%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>61,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>61,64; 68,78</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>66,45; 73,92</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>66,06; 72,62</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>62,2; 73,42</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>48,7; 54,86</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>53,05; 59,59</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>52,07; 57,67</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>50,28; 57,43</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>55,88; 61,09</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>60,66; 65,64</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>59,7; 64,41</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>58,06; 64,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>14,37%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>23,57%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>19,11%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>21,78%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 12,28</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 23,24</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 17,38</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 24,53</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 17,35</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>21,6; 27,24</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>21,32; 26,08</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 22,35</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 14,1</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 24,08</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>17,41; 20,99</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>15,7; 21,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
